--- a/templates/Saxo_Transactions_template.xlsx
+++ b/templates/Saxo_Transactions_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8409B61B-9D40-4837-BB3C-2910C534D726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6CAAB1-E96D-4D8C-A038-1C2A0DF939AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,45 +31,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+  <si>
+    <t>Kunde-id</t>
+  </si>
   <si>
     <t>Handelsdato</t>
   </si>
   <si>
+    <t>Valørdato</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
     <t>Instrument</t>
   </si>
   <si>
+    <t>Instrumentets ISIN</t>
+  </si>
+  <si>
+    <t>Instrumentvaluta</t>
+  </si>
+  <si>
+    <t>Børsbeskrivelse</t>
+  </si>
+  <si>
+    <t>Instrumentsymbol</t>
+  </si>
+  <si>
     <t>Arrangement</t>
   </si>
   <si>
-    <t>Bogført beløb</t>
-  </si>
-  <si>
-    <t>08-Feb-2022</t>
+    <t>Antal/Beløb</t>
+  </si>
+  <si>
+    <t>Ordre ID</t>
+  </si>
+  <si>
+    <t>Omregningssats</t>
+  </si>
+  <si>
+    <t>9220037</t>
+  </si>
+  <si>
+    <t>09-Feb-2024</t>
+  </si>
+  <si>
+    <t>Corporate action</t>
+  </si>
+  <si>
+    <t>Danske Inv Global Indeks KL DKK D</t>
+  </si>
+  <si>
+    <t>DK0010263052</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>NASDAQ OMX Copenhagen (Investment trusts)</t>
+  </si>
+  <si>
+    <t>DKIGI:xcse</t>
+  </si>
+  <si>
+    <t>Udbytte</t>
+  </si>
+  <si>
+    <t>13-Feb-2024</t>
   </si>
   <si>
     <t>Handel</t>
   </si>
   <si>
-    <t>Danske Inv Global Indeks KL DKK D</t>
-  </si>
-  <si>
-    <t>Køb 20 @ 91.7</t>
-  </si>
-  <si>
-    <t>Kontantoverførsel</t>
-  </si>
-  <si>
-    <t>Indbetaling</t>
-  </si>
-  <si>
-    <t>06-Feb-2022</t>
-  </si>
-  <si>
-    <t>Køb 133 @ 92.62</t>
+    <t>Storebrand Indeks - Nye Markeder A5</t>
+  </si>
+  <si>
+    <t>NO0010841570</t>
+  </si>
+  <si>
+    <t>STIINM:xcse</t>
+  </si>
+  <si>
+    <t>Købt 6 @ 1136.2</t>
+  </si>
+  <si>
+    <t>5161166255</t>
   </si>
 </sst>
 </file>
@@ -115,7 +166,152 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -129,13 +325,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E81" totalsRowShown="0">
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Handelsdato"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Instrument"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Arrangement"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Bogført beløb"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M81" totalsRowShown="0">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kunde-id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Handelsdato"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Valørdato"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Instrument"/>
+    <tableColumn id="6" xr3:uid="{FA043DAC-53A5-4CBC-B309-AF3C5C0A2CC6}" name="Instrumentets ISIN" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{7A94B7AA-BBE0-40D8-9034-20E3E21EEDDB}" name="Instrumentvaluta" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{2A4F6089-B83C-4C21-A723-2CA001D975A9}" name="Børsbeskrivelse" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{14067C34-C65B-4B8F-B999-83633E745E3E}" name="Instrumentsymbol" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F42CF7A8-C835-44C9-A9EA-D2E72849EC5D}" name="Arrangement" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{740F1FAC-C82C-441E-BFFE-4EBCBD457B20}" name="Antal/Beløb" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3E7E4725-8F9D-4713-A98E-10C8B7E22A37}" name="Ordre ID" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{ED6A4ED0-7AF0-4308-BE65-5762145D8185}" name="Omregningssats" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -426,11 +630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,7 +648,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,80 +664,162 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:13" ht="12.75">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-1835.83</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4167.42</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:13" ht="12.75">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2500</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1785.6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
+    <row r="4" spans="1:13" ht="12.75">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-12330.78</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-6827.2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>12500</v>
-      </c>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="12.75"/>
-    <row r="7" spans="1:5" ht="12.75"/>
-    <row r="8" spans="1:5" ht="12.75"/>
-    <row r="9" spans="1:5" ht="12.75"/>
-    <row r="10" spans="1:5" ht="12.75"/>
-    <row r="11" spans="1:5" ht="12.75"/>
-    <row r="12" spans="1:5" ht="12.75"/>
-    <row r="13" spans="1:5" ht="12.75"/>
-    <row r="14" spans="1:5" ht="12.75"/>
-    <row r="15" spans="1:5" ht="12.75"/>
-    <row r="16" spans="1:5" ht="12.75"/>
+    <row r="6" spans="1:13" ht="12.75"/>
+    <row r="7" spans="1:13" ht="12.75"/>
+    <row r="8" spans="1:13" ht="12.75"/>
+    <row r="9" spans="1:13" ht="12.75"/>
+    <row r="10" spans="1:13" ht="12.75"/>
+    <row r="11" spans="1:13" ht="12.75"/>
+    <row r="12" spans="1:13" ht="12.75"/>
+    <row r="13" spans="1:13" ht="12.75"/>
+    <row r="14" spans="1:13" ht="12.75"/>
+    <row r="15" spans="1:13" ht="12.75"/>
+    <row r="16" spans="1:13" ht="12.75"/>
     <row r="17" ht="12.75"/>
     <row r="18" ht="12.75"/>
     <row r="19" ht="12.75"/>
